--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7aa09b4798fb2714/Dokumenter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansk\OneDrive\Dokumenter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B83232F9-0A89-4EB6-BE7F-F23FB56357E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38B64349-ACFA-48CC-862A-B89B550B2230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7810" xr2:uid="{72F262C0-BE9F-4C48-8A73-A543BCC3175C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{0F43E2E0-6C77-4200-8C4E-330EC8DE9613}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -401,12 +401,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7584EA-899F-4661-8E57-CBAB160C0DDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F59983D-1BBB-475C-8A14-953B48CA510D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
